--- a/ELM/Brtnik/VlastnostiVoltmetruSOperacnimZesilovacem/ELM_Protokol_Radim.xlsx
+++ b/ELM/Brtnik/VlastnostiVoltmetruSOperacnimZesilovacem/ELM_Protokol_Radim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\Brtnik\VlastnostiVoltmetruSOperacnimZesilovacem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\Brtnik\VlastnostiVoltmetruSOperacnimZesilovacem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEF7A1E-497F-4F9C-B43E-970AE43C946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C31C8-A129-4A91-B3B3-6999271C9888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>SŠPTA Jihlava
 třída Legionářů 3, Jihlava</t>
@@ -424,12 +424,73 @@
   <si>
     <t>Cejchování</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zapojili jsme obovd dle schémata A.
+Změrili jsme napětí U a proud I při </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>α = {5, 10, 15, 20, 25}.
+Vypočítali jsme R.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Zapojili jsme obvod dle schémata B.
+Změřili jsme počet dílu při f = {100, 200, 500, 1000, 2000, 5000, …, 1000000}.
+Sestrojili jsme graf.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Vypočítání R</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Změření U a I u obvodu A při </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>α = {5, 10, 15, 20, 25}</t>
+    </r>
+  </si>
+  <si>
+    <t>Změření počtu dílku u obvodu B při f = {100, 200, 500, 1000, …, 100000}</t>
+  </si>
+  <si>
+    <t>Sestrojení grafu</t>
+  </si>
+  <si>
+    <t>R = U/I
+R = 20.3/0
+R = ∞</t>
+  </si>
+  <si>
+    <t>Obvod opustil mezi +-1 dílek při frekvenci 50000Hz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +544,12 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -682,6 +749,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -691,6 +828,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -700,63 +849,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,19 +864,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,33 +882,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,6 +899,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,7 +1241,7 @@
   <dimension ref="C3:S32"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:R12"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,122 +1279,122 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,18 +1429,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(1,0), ".")</f>
         <v>1.</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="F15" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
@@ -1384,40 +1453,44 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(2,0), ".")</f>
         <v>2.</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="F16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(3,0), ".")</f>
         <v>3.</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="F17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
@@ -1428,18 +1501,20 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(4,0), ".")</f>
         <v>4.</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="F18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
@@ -1450,18 +1525,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(5,0), ".")</f>
         <v>5.</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
@@ -1479,134 +1554,134 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16" t="s">
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="16" t="s">
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="25" t="s">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1670,6 +1745,12 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="N26:R27"/>
     <mergeCell ref="D7:R8"/>
     <mergeCell ref="D9:R10"/>
     <mergeCell ref="D11:R12"/>
@@ -1681,12 +1762,6 @@
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="F18:Q18"/>
     <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="I26:M27"/>
-    <mergeCell ref="N26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1698,7 +1773,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="63" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
@@ -1729,23 +1804,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,99 +1844,99 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1870,23 +1945,23 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1908,123 +1983,123 @@
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="45" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="41" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="45" t="s">
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="41" t="s">
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="50" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="50" t="s">
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="50" t="s">
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="50" t="s">
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="50" t="s">
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="50" t="s">
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="4"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,23 +2108,23 @@
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2073,135 +2148,135 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2227,6 +2302,10 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D23:R29"/>
@@ -2243,10 +2322,6 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2258,8 +2333,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C3:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView topLeftCell="A9" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="69" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,23 +2373,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,192 +2413,194 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="D7" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,23 +2610,23 @@
     </row>
     <row r="18" spans="3:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:25" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,54 +2648,54 @@
     </row>
     <row r="20" spans="3:25" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="18">
         <v>5</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="18">
         <v>10</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="18">
         <v>15</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="18">
         <v>20</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="19">
         <v>25</v>
       </c>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="22">
         <v>20.3</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="22">
         <v>40.200000000000003</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="22">
         <v>60.6</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="22">
         <v>79.900000000000006</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="23">
         <v>100.4</v>
       </c>
       <c r="J21" s="15"/>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
@@ -2626,30 +2703,30 @@
     </row>
     <row r="22" spans="3:25" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="22">
         <v>0</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="22">
         <v>0</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="22">
         <v>0</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="22">
         <v>0</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="25">
         <v>0</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -2657,22 +2734,22 @@
     </row>
     <row r="23" spans="3:25" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="J23" s="11"/>
@@ -2707,117 +2784,117 @@
     </row>
     <row r="25" spans="3:25" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="18">
         <v>50</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="18">
         <v>100</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="18">
         <v>200</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="18">
         <v>500</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="18">
         <v>1000</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="18">
         <v>2000</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="18">
         <v>5000</v>
       </c>
-      <c r="L25" s="55">
+      <c r="L25" s="18">
         <v>10000</v>
       </c>
-      <c r="M25" s="55">
+      <c r="M25" s="18">
         <v>15000</v>
       </c>
-      <c r="N25" s="55">
+      <c r="N25" s="18">
         <v>20000</v>
       </c>
-      <c r="O25" s="55">
+      <c r="O25" s="18">
         <v>25000</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="18">
         <v>30000</v>
       </c>
-      <c r="Q25" s="55">
+      <c r="Q25" s="18">
         <v>35000</v>
       </c>
-      <c r="R25" s="55">
+      <c r="R25" s="18">
         <v>50000</v>
       </c>
-      <c r="S25" s="53">
+      <c r="S25" s="19">
         <v>100000</v>
       </c>
-      <c r="U25" s="62" t="s">
+      <c r="U25" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="64"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
     </row>
     <row r="26" spans="3:25" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="18">
         <v>20</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="18">
         <v>20</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="18">
         <v>20</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="18">
         <v>20</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="18">
         <v>20</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="18">
         <v>20</v>
       </c>
-      <c r="K26" s="55">
+      <c r="K26" s="18">
         <v>20</v>
       </c>
-      <c r="L26" s="55">
+      <c r="L26" s="18">
         <v>20</v>
       </c>
-      <c r="M26" s="55">
+      <c r="M26" s="18">
         <v>20</v>
       </c>
-      <c r="N26" s="55">
+      <c r="N26" s="18">
         <v>20</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="18">
         <v>20</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P26" s="18">
         <v>19.600000000000001</v>
       </c>
-      <c r="Q26" s="55">
+      <c r="Q26" s="18">
         <v>19.5</v>
       </c>
-      <c r="R26" s="55">
+      <c r="R26" s="18">
         <v>19</v>
       </c>
-      <c r="S26" s="53">
+      <c r="S26" s="19">
         <v>17</v>
       </c>
-      <c r="U26" s="65"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="67"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="66"/>
     </row>
     <row r="27" spans="3:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
@@ -2914,8 +2991,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:R29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,23 +3022,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,59 +3062,61 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="D7" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,23 +3140,23 @@
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,173 +3165,173 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,23 +3340,23 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,97 +3380,99 @@
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+      <c r="D25" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
